--- a/pytheas_data/topology_definitions.xlsx
+++ b/pytheas_data/topology_definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrwill/prog/pytheas_tk_interface/pytheas_dev/pytheas_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrwill/prog/Pytheas_Folder/Pytheas_Qt_root/Pytheas_Qt/pytheas_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C483233-CAF9-854E-A736-C7B1307EA8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8F270-AB82-714D-9AD6-D409E459309D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="760" windowWidth="28580" windowHeight="18360" activeTab="1" xr2:uid="{B75AD3E7-DC5C-A545-A0ED-AC6F40AD9556}"/>
+    <workbookView xWindow="940" yWindow="760" windowWidth="28580" windowHeight="18360" activeTab="1" xr2:uid="{B75AD3E7-DC5C-A545-A0ED-AC6F40AD9556}"/>
   </bookViews>
   <sheets>
     <sheet name="normal_topology" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="98">
   <si>
     <t>group</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>OH5_P</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>atoms for composition only</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1235,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1846,6 +1852,47 @@
       </c>
       <c r="L15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
